--- a/data/Descriptives.xlsx
+++ b/data/Descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plagl\portfolio-autoencoder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D356C0-8494-44F1-9671-DE80BBD44053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9538B2E2-D5D4-4B61-A79E-40ED808E27D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
+    <workbookView xWindow="3936" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -63,14 +63,34 @@
   </si>
   <si>
     <t>NASDAQ</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>OLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,9 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,15 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB79F8-33B6-4000-9700-2F754462BA4D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -436,8 +464,29 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,109 +502,281 @@
       <c r="E2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>504</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>211</v>
+      </c>
+      <c r="K2">
+        <v>288</v>
+      </c>
+      <c r="L2">
+        <v>385</v>
+      </c>
+      <c r="M2">
+        <v>1220</v>
+      </c>
+      <c r="N2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>3876</v>
+      </c>
+      <c r="C3">
+        <v>3874</v>
+      </c>
+      <c r="D3">
+        <v>3869</v>
+      </c>
+      <c r="E3">
+        <v>3776</v>
+      </c>
+      <c r="F3">
+        <v>3761</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
+        <v>-8.2547624405101605E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-8.0707187898166402E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.126511577213342</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-7.6125669660324996E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-8.4863466038425803E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
         <v>-0.83223394898856595</v>
       </c>
-      <c r="C3">
+      <c r="K4">
         <v>-0.99019607843137203</v>
       </c>
-      <c r="D3">
+      <c r="L4">
         <v>-0.67378640776698995</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="M4">
+        <v>-0.99937500000000001</v>
+      </c>
+      <c r="N4">
+        <v>-0.70694087403598904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
+        <v>7.9411443422545899E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.25103652618100297</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.1272448065648507E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>26.647766179766101</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.6180501293657605E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>6.2754557427046498</v>
       </c>
-      <c r="C4">
+      <c r="K5">
         <v>71</v>
       </c>
-      <c r="D4">
+      <c r="L5">
         <v>0.92592592592592504</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="M5">
+        <v>32499</v>
+      </c>
+      <c r="N5">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="3">
+        <v>5.2000185823426303E-4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.61514212816801E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.7153198702859599E-4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.3644806506849804E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.2980688090712898E-4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>5.2000185823426498E-4</v>
       </c>
-      <c r="C5">
+      <c r="K6">
         <v>1.6151421281680001E-3</v>
       </c>
-      <c r="D5">
+      <c r="L6">
         <v>3.7153198702859398E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="M6">
+        <v>8.3644806506849995E-3</v>
+      </c>
+      <c r="N6">
+        <v>7.2980688090712898E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
+        <v>1.4049323753458201E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.6706080420121101E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.3949703619684899E-4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.18861987548154999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.21014569275321E-4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
         <v>1.54388481867551E-6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="K7" s="1">
         <v>1.3207498866028399E-5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="L7" s="1">
         <v>5.4916167529514703E-8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="M7">
+        <v>6.1024924060330402E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.5309997590723301E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
+        <v>-0.38871824167126801</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.5140770028360402</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.63591458503640896</v>
+      </c>
+      <c r="E8" s="3">
+        <v>61.172542399376802</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.70182335098008297</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <v>12.1271982463194</v>
       </c>
-      <c r="C7">
+      <c r="K8">
         <v>5.5726946400581499</v>
       </c>
-      <c r="D7">
+      <c r="L8">
         <v>0.164303041448564</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="M8">
+        <v>34.797443930074998</v>
+      </c>
+      <c r="N8">
+        <v>3.5913049611254699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="4">
+        <v>5.8813824233531298</v>
+      </c>
+      <c r="C9" s="4">
+        <v>84.248937961443502</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.316463385315499</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3752.76597877836</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.0711736247330701</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
         <v>164.26861991816401</v>
       </c>
-      <c r="C8">
+      <c r="K9">
         <v>42.468249715446497</v>
       </c>
-      <c r="D8">
+      <c r="L9">
         <v>2.9958691478445001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>219</v>
-      </c>
-      <c r="C12">
-        <v>294</v>
-      </c>
-      <c r="D12">
-        <v>402</v>
-      </c>
-      <c r="E12">
-        <v>1284</v>
+      <c r="M9">
+        <v>1213.7025404814599</v>
+      </c>
+      <c r="N9">
+        <v>22.5685138290008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>